--- a/target/classes/com/qa/crud/utilites/ExcelFile/Test Data For Crud Opertations.xlsx
+++ b/target/classes/com/qa/crud/utilites/ExcelFile/Test Data For Crud Opertations.xlsx
@@ -4,11 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Add" sheetId="1" r:id="rId1"/>
     <sheet name="Update" sheetId="2" r:id="rId2"/>
+    <sheet name="Delete" sheetId="4" r:id="rId3"/>
+    <sheet name="Show" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
   <si>
     <t>FirstName</t>
   </si>
@@ -37,9 +39,6 @@
     <t>ZipCode</t>
   </si>
   <si>
-    <t xml:space="preserve">Sandra </t>
-  </si>
-  <si>
     <t xml:space="preserve">Walker </t>
   </si>
   <si>
@@ -53,6 +52,18 @@
   </si>
   <si>
     <t>London</t>
+  </si>
+  <si>
+    <t>Syed</t>
+  </si>
+  <si>
+    <t>Saad</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Paul</t>
   </si>
 </sst>
 </file>
@@ -373,7 +384,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -397,16 +408,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C2">
         <v>378</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2">
         <v>454545</v>
@@ -414,16 +425,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
       </c>
       <c r="C3">
         <v>334</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3">
         <v>3443432</v>
@@ -436,10 +447,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -463,36 +474,69 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>378</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2">
         <v>454545</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>334</v>
-      </c>
-      <c r="D3" t="s">
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>10</v>
-      </c>
-      <c r="E3">
-        <v>454545</v>
       </c>
     </row>
   </sheetData>
